--- a/data/option/AAPL_2021-06-15_call_revised.xlsx
+++ b/data/option/AAPL_2021-06-15_call_revised.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F241"/>
+  <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>strike</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Maturity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>lastPrice</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>volume</t>
         </is>
@@ -465,18 +460,15 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>102.41</v>
       </c>
       <c r="E2" t="n">
-        <v>102.41</v>
-      </c>
-      <c r="F2" t="n">
         <v>25</v>
       </c>
     </row>
@@ -485,18 +477,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="F3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -505,18 +494,15 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>31.25</v>
       </c>
       <c r="C4" t="n">
-        <v>31.25</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>98.68000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>98.68000000000001</v>
-      </c>
-      <c r="F4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -525,18 +511,15 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>32.5</v>
       </c>
       <c r="C5" t="n">
-        <v>32.5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>96.53</v>
       </c>
       <c r="E5" t="n">
-        <v>96.53</v>
-      </c>
-      <c r="F5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -545,18 +528,15 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>33.75</v>
       </c>
       <c r="C6" t="n">
-        <v>33.75</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>95.5</v>
       </c>
       <c r="E6" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="F6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -565,18 +545,15 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="F7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -585,18 +562,15 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>90.05</v>
       </c>
       <c r="E8" t="n">
-        <v>90.05</v>
-      </c>
-      <c r="F8" t="n">
         <v>12</v>
       </c>
     </row>
@@ -605,18 +579,15 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>43.75</v>
       </c>
       <c r="C9" t="n">
-        <v>43.75</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>86.25</v>
       </c>
       <c r="E9" t="n">
-        <v>86.25</v>
-      </c>
-      <c r="F9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -625,18 +596,15 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22</v>
+        <v>46.25</v>
       </c>
       <c r="C10" t="n">
-        <v>46.25</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>83.92</v>
       </c>
       <c r="E10" t="n">
-        <v>83.92</v>
-      </c>
-      <c r="F10" t="n">
         <v>78</v>
       </c>
     </row>
@@ -645,18 +613,15 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23</v>
+        <v>47.5</v>
       </c>
       <c r="C11" t="n">
-        <v>47.5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="E11" t="n">
-        <v>83</v>
-      </c>
-      <c r="F11" t="n">
         <v>20</v>
       </c>
     </row>
@@ -665,18 +630,15 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>80.55</v>
       </c>
       <c r="E12" t="n">
-        <v>80.55</v>
-      </c>
-      <c r="F12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -685,18 +647,15 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>26</v>
+        <v>51.25</v>
       </c>
       <c r="C13" t="n">
-        <v>51.25</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>78.51000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>78.51000000000001</v>
-      </c>
-      <c r="F13" t="n">
         <v>505</v>
       </c>
     </row>
@@ -705,18 +664,15 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>30</v>
+        <v>56.25</v>
       </c>
       <c r="C14" t="n">
-        <v>56.25</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>71.25</v>
       </c>
       <c r="E14" t="n">
-        <v>71.25</v>
-      </c>
-      <c r="F14" t="n">
         <v>3</v>
       </c>
     </row>
@@ -725,18 +681,15 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>31</v>
+        <v>57.5</v>
       </c>
       <c r="C15" t="n">
-        <v>57.5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>72.65000000000001</v>
-      </c>
-      <c r="F15" t="n">
         <v>8</v>
       </c>
     </row>
@@ -745,18 +698,15 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>32</v>
+        <v>58.75</v>
       </c>
       <c r="C16" t="n">
-        <v>58.75</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>70.75</v>
       </c>
       <c r="E16" t="n">
-        <v>70.75</v>
-      </c>
-      <c r="F16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -765,18 +715,15 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C17" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>70.34999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>70.34999999999999</v>
-      </c>
-      <c r="F17" t="n">
         <v>168</v>
       </c>
     </row>
@@ -785,18 +732,15 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>34</v>
+        <v>61.25</v>
       </c>
       <c r="C18" t="n">
-        <v>61.25</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>67.84999999999999</v>
-      </c>
-      <c r="F18" t="n">
         <v>4</v>
       </c>
     </row>
@@ -805,18 +749,15 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C19" t="n">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>64.15000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>64.15000000000001</v>
-      </c>
-      <c r="F19" t="n">
         <v>12</v>
       </c>
     </row>
@@ -825,18 +766,15 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C20" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>59.95</v>
       </c>
       <c r="E20" t="n">
-        <v>59.95</v>
-      </c>
-      <c r="F20" t="n">
         <v>24</v>
       </c>
     </row>
@@ -845,18 +783,15 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>51</v>
+        <v>92.5</v>
       </c>
       <c r="C21" t="n">
-        <v>92.5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>37.08</v>
       </c>
       <c r="E21" t="n">
-        <v>37.08</v>
-      </c>
-      <c r="F21" t="n">
         <v>5</v>
       </c>
     </row>
@@ -865,18 +800,15 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>55</v>
+        <v>102.5</v>
       </c>
       <c r="C22" t="n">
-        <v>102.5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>27.19</v>
       </c>
       <c r="E22" t="n">
-        <v>27.19</v>
-      </c>
-      <c r="F22" t="n">
         <v>2</v>
       </c>
     </row>
@@ -885,54 +817,45 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="C23" t="n">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" t="n">
         <v>22.75</v>
       </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C24" t="n">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" t="n">
         <v>20.4</v>
       </c>
-      <c r="F24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>59</v>
+        <v>107.5</v>
       </c>
       <c r="C25" t="n">
-        <v>107.5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>22.01</v>
       </c>
       <c r="E25" t="n">
-        <v>22.01</v>
-      </c>
-      <c r="F25" t="n">
         <v>15</v>
       </c>
     </row>
@@ -941,18 +864,15 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="C26" t="n">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>21.38</v>
       </c>
       <c r="E26" t="n">
-        <v>21.38</v>
-      </c>
-      <c r="F26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -961,18 +881,15 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="C27" t="n">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>11.81</v>
       </c>
       <c r="E27" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="F27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -981,18 +898,15 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C28" t="n">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>11.03</v>
       </c>
       <c r="E28" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="F28" t="n">
         <v>81</v>
       </c>
     </row>
@@ -1001,18 +915,15 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="C29" t="n">
-        <v>147</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1021,18 +932,15 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="C30" t="n">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F30" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1041,18 +949,15 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="C31" t="n">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1061,18 +966,15 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="C32" t="n">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F32" t="n">
         <v>29</v>
       </c>
     </row>
@@ -1081,18 +983,15 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="C33" t="n">
-        <v>170</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F33" t="n">
         <v>42</v>
       </c>
     </row>
@@ -1101,18 +1000,15 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="C34" t="n">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F34" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1121,18 +1017,15 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="C35" t="n">
-        <v>190</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1141,18 +1034,15 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>121</v>
+        <v>250</v>
       </c>
       <c r="C36" t="n">
-        <v>250</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F36" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1161,18 +1051,15 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="C37" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
+        <v>29.9</v>
       </c>
       <c r="E37" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="F37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1181,18 +1068,15 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="C38" t="n">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>24.89</v>
       </c>
       <c r="E38" t="n">
-        <v>24.89</v>
-      </c>
-      <c r="F38" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1201,18 +1085,15 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="C39" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>19.7</v>
       </c>
       <c r="E39" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="F39" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1221,18 +1102,15 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="C40" t="n">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>17.2</v>
       </c>
       <c r="E40" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="F40" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1241,18 +1119,15 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="C41" t="n">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>15.45</v>
       </c>
       <c r="E41" t="n">
-        <v>15.45</v>
-      </c>
-      <c r="F41" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1261,18 +1136,15 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="C42" t="n">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="D42" t="n">
-        <v>10</v>
+        <v>15.4</v>
       </c>
       <c r="E42" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F42" t="n">
         <v>67</v>
       </c>
     </row>
@@ -1281,18 +1153,15 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="C43" t="n">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="D43" t="n">
-        <v>10</v>
+        <v>12.58</v>
       </c>
       <c r="E43" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="F43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1301,18 +1170,15 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="C44" t="n">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="D44" t="n">
-        <v>10</v>
+        <v>12.48</v>
       </c>
       <c r="E44" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="F44" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1321,18 +1187,15 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="C45" t="n">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="D45" t="n">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="E45" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F45" t="n">
         <v>21</v>
       </c>
     </row>
@@ -1341,18 +1204,15 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="C46" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="D46" t="n">
-        <v>10</v>
+        <v>0.02</v>
       </c>
       <c r="E46" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F46" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1361,18 +1221,15 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>224</v>
+        <v>100</v>
       </c>
       <c r="C47" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D47" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E47" t="n">
-        <v>30</v>
-      </c>
-      <c r="F47" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1381,18 +1238,15 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>229</v>
+        <v>109</v>
       </c>
       <c r="C48" t="n">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D48" t="n">
-        <v>17</v>
+        <v>20.62</v>
       </c>
       <c r="E48" t="n">
-        <v>20.62</v>
-      </c>
-      <c r="F48" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1401,18 +1255,15 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>233</v>
+        <v>113</v>
       </c>
       <c r="C49" t="n">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="D49" t="n">
-        <v>17</v>
+        <v>16.68</v>
       </c>
       <c r="E49" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="F49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1421,18 +1272,15 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>236</v>
+        <v>116</v>
       </c>
       <c r="C50" t="n">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="D50" t="n">
-        <v>17</v>
+        <v>14.35</v>
       </c>
       <c r="E50" t="n">
-        <v>14.35</v>
-      </c>
-      <c r="F50" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1441,18 +1289,15 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>237</v>
+        <v>117</v>
       </c>
       <c r="C51" t="n">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="D51" t="n">
-        <v>17</v>
+        <v>12.29</v>
       </c>
       <c r="E51" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="F51" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1461,18 +1306,15 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>238</v>
+        <v>118</v>
       </c>
       <c r="C52" t="n">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="D52" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E52" t="n">
-        <v>12</v>
-      </c>
-      <c r="F52" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1481,18 +1323,15 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>239</v>
+        <v>119</v>
       </c>
       <c r="C53" t="n">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>17</v>
+        <v>11.65</v>
       </c>
       <c r="E53" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="F53" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1501,18 +1340,15 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>241</v>
+        <v>121</v>
       </c>
       <c r="C54" t="n">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="D54" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="E54" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F54" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1521,18 +1357,15 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>267</v>
+        <v>147</v>
       </c>
       <c r="C55" t="n">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="D55" t="n">
-        <v>17</v>
+        <v>0.08</v>
       </c>
       <c r="E55" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F55" t="n">
         <v>64</v>
       </c>
     </row>
@@ -1541,18 +1374,15 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>268</v>
+        <v>148</v>
       </c>
       <c r="C56" t="n">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="D56" t="n">
-        <v>17</v>
+        <v>0.05</v>
       </c>
       <c r="E56" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F56" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1561,18 +1391,15 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>269</v>
+        <v>149</v>
       </c>
       <c r="C57" t="n">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="D57" t="n">
-        <v>17</v>
+        <v>0.06</v>
       </c>
       <c r="E57" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F57" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1581,18 +1408,15 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>271</v>
+        <v>90</v>
       </c>
       <c r="C58" t="n">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D58" t="n">
-        <v>24</v>
+        <v>39.95</v>
       </c>
       <c r="E58" t="n">
-        <v>39.95</v>
-      </c>
-      <c r="F58" t="n">
         <v>750</v>
       </c>
     </row>
@@ -1601,18 +1425,15 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>274</v>
+        <v>105</v>
       </c>
       <c r="C59" t="n">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="D59" t="n">
-        <v>24</v>
+        <v>24.6</v>
       </c>
       <c r="E59" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="F59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1621,18 +1442,15 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>279</v>
+        <v>115</v>
       </c>
       <c r="C60" t="n">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="D60" t="n">
-        <v>24</v>
+        <v>15.2</v>
       </c>
       <c r="E60" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F60" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1641,18 +1459,15 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>282</v>
+        <v>118</v>
       </c>
       <c r="C61" t="n">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="D61" t="n">
-        <v>24</v>
+        <v>12.24</v>
       </c>
       <c r="E61" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="F61" t="n">
         <v>27</v>
       </c>
     </row>
@@ -1661,18 +1476,15 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>286</v>
+        <v>122</v>
       </c>
       <c r="C62" t="n">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="D62" t="n">
-        <v>24</v>
+        <v>8.75</v>
       </c>
       <c r="E62" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="F62" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1681,18 +1493,15 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>316</v>
+        <v>60</v>
       </c>
       <c r="C63" t="n">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D63" t="n">
-        <v>31</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="F63" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1701,18 +1510,15 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>318</v>
+        <v>70</v>
       </c>
       <c r="C64" t="n">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D64" t="n">
-        <v>31</v>
+        <v>59.93</v>
       </c>
       <c r="E64" t="n">
-        <v>59.93</v>
-      </c>
-      <c r="F64" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1721,18 +1527,15 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>321</v>
+        <v>85</v>
       </c>
       <c r="C65" t="n">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="D65" t="n">
-        <v>31</v>
+        <v>44.8</v>
       </c>
       <c r="E65" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="F65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1741,18 +1544,15 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>322</v>
+        <v>90</v>
       </c>
       <c r="C66" t="n">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="D66" t="n">
-        <v>31</v>
+        <v>40.18</v>
       </c>
       <c r="E66" t="n">
-        <v>40.18</v>
-      </c>
-      <c r="F66" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1761,18 +1561,15 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>338</v>
+        <v>170</v>
       </c>
       <c r="C67" t="n">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="D67" t="n">
-        <v>31</v>
+        <v>0.03</v>
       </c>
       <c r="E67" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F67" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1781,18 +1578,15 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>342</v>
+        <v>190</v>
       </c>
       <c r="C68" t="n">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="D68" t="n">
-        <v>31</v>
+        <v>0.01</v>
       </c>
       <c r="E68" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F68" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1801,18 +1595,15 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>343</v>
+        <v>195</v>
       </c>
       <c r="C69" t="n">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="D69" t="n">
-        <v>31</v>
+        <v>0.01</v>
       </c>
       <c r="E69" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F69" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1821,18 +1612,15 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>348</v>
+        <v>220</v>
       </c>
       <c r="C70" t="n">
-        <v>220</v>
+        <v>31</v>
       </c>
       <c r="D70" t="n">
-        <v>31</v>
+        <v>0.01</v>
       </c>
       <c r="E70" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F70" t="n">
         <v>50</v>
       </c>
     </row>
@@ -1841,36 +1629,30 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>351</v>
+        <v>95</v>
       </c>
       <c r="C71" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="D71" t="n">
-        <v>38</v>
-      </c>
-      <c r="E71" t="n">
         <v>32.21</v>
       </c>
-      <c r="F71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>352</v>
+        <v>100</v>
       </c>
       <c r="C72" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D72" t="n">
-        <v>38</v>
+        <v>30.61</v>
       </c>
       <c r="E72" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="F72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1879,18 +1661,15 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>360</v>
+        <v>116</v>
       </c>
       <c r="C73" t="n">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="D73" t="n">
-        <v>38</v>
+        <v>14.6</v>
       </c>
       <c r="E73" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,18 +1678,15 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>361</v>
+        <v>117</v>
       </c>
       <c r="C74" t="n">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="D74" t="n">
-        <v>38</v>
+        <v>13.69</v>
       </c>
       <c r="E74" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="F74" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1919,18 +1695,15 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>362</v>
+        <v>118</v>
       </c>
       <c r="C75" t="n">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="D75" t="n">
-        <v>38</v>
+        <v>12.6</v>
       </c>
       <c r="E75" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F75" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1939,18 +1712,15 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>363</v>
+        <v>119</v>
       </c>
       <c r="C76" t="n">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="D76" t="n">
-        <v>38</v>
+        <v>11.25</v>
       </c>
       <c r="E76" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="F76" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1959,18 +1729,15 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>366</v>
+        <v>122</v>
       </c>
       <c r="C77" t="n">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="D77" t="n">
-        <v>38</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="F77" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1979,18 +1746,15 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>388</v>
+        <v>155</v>
       </c>
       <c r="C78" t="n">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="D78" t="n">
-        <v>38</v>
+        <v>0.11</v>
       </c>
       <c r="E78" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F78" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1999,18 +1763,15 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>390</v>
+        <v>113</v>
       </c>
       <c r="C79" t="n">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D79" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E79" t="n">
-        <v>18</v>
-      </c>
-      <c r="F79" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2019,18 +1780,15 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>392</v>
+        <v>116</v>
       </c>
       <c r="C80" t="n">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="D80" t="n">
-        <v>45</v>
+        <v>14.4</v>
       </c>
       <c r="E80" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F80" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2039,36 +1797,30 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>393</v>
+        <v>117</v>
       </c>
       <c r="C81" t="n">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="D81" t="n">
-        <v>45</v>
-      </c>
-      <c r="E81" t="n">
         <v>13.1</v>
       </c>
-      <c r="F81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>394</v>
+        <v>120</v>
       </c>
       <c r="C82" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="D82" t="n">
-        <v>45</v>
+        <v>11.75</v>
       </c>
       <c r="E82" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="F82" t="n">
         <v>160</v>
       </c>
     </row>
@@ -2077,18 +1829,15 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>395</v>
+        <v>121</v>
       </c>
       <c r="C83" t="n">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="D83" t="n">
-        <v>45</v>
+        <v>10.6</v>
       </c>
       <c r="E83" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="F83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2097,18 +1846,15 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>397</v>
+        <v>123</v>
       </c>
       <c r="C84" t="n">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="D84" t="n">
-        <v>45</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="F84" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2117,36 +1863,30 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>421</v>
+        <v>65</v>
       </c>
       <c r="C85" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D85" t="n">
-        <v>66</v>
-      </c>
-      <c r="E85" t="n">
         <v>62</v>
       </c>
-      <c r="F85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>423</v>
+        <v>75</v>
       </c>
       <c r="C86" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D86" t="n">
-        <v>66</v>
+        <v>52.62</v>
       </c>
       <c r="E86" t="n">
-        <v>52.62</v>
-      </c>
-      <c r="F86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2155,18 +1895,15 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="C87" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D87" t="n">
-        <v>66</v>
+        <v>50.03</v>
       </c>
       <c r="E87" t="n">
-        <v>50.03</v>
-      </c>
-      <c r="F87" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2175,18 +1912,15 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>426</v>
+        <v>90</v>
       </c>
       <c r="C88" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="D88" t="n">
-        <v>66</v>
+        <v>40.33</v>
       </c>
       <c r="E88" t="n">
-        <v>40.33</v>
-      </c>
-      <c r="F88" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2195,18 +1929,15 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>429</v>
+        <v>105</v>
       </c>
       <c r="C89" t="n">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="D89" t="n">
-        <v>66</v>
+        <v>25.83</v>
       </c>
       <c r="E89" t="n">
-        <v>25.83</v>
-      </c>
-      <c r="F89" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2215,18 +1946,15 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>441</v>
+        <v>165</v>
       </c>
       <c r="C90" t="n">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="D90" t="n">
-        <v>66</v>
+        <v>0.25</v>
       </c>
       <c r="E90" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F90" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2235,18 +1963,15 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>444</v>
+        <v>180</v>
       </c>
       <c r="C91" t="n">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="D91" t="n">
-        <v>66</v>
+        <v>0.12</v>
       </c>
       <c r="E91" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F91" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2255,18 +1980,15 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>445</v>
+        <v>185</v>
       </c>
       <c r="C92" t="n">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="D92" t="n">
-        <v>66</v>
+        <v>0.11</v>
       </c>
       <c r="E92" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F92" t="n">
         <v>282</v>
       </c>
     </row>
@@ -2275,18 +1997,15 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>447</v>
+        <v>195</v>
       </c>
       <c r="C93" t="n">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="D93" t="n">
-        <v>66</v>
+        <v>0.08</v>
       </c>
       <c r="E93" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F93" t="n">
         <v>54</v>
       </c>
     </row>
@@ -2295,18 +2014,15 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>448</v>
+        <v>200</v>
       </c>
       <c r="C94" t="n">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="D94" t="n">
-        <v>66</v>
+        <v>0.08</v>
       </c>
       <c r="E94" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F94" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2315,18 +2031,15 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>455</v>
+        <v>35</v>
       </c>
       <c r="C95" t="n">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="D95" t="n">
-        <v>94</v>
+        <v>93.86</v>
       </c>
       <c r="E95" t="n">
-        <v>93.86</v>
-      </c>
-      <c r="F95" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2335,18 +2048,15 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>457</v>
+        <v>37.5</v>
       </c>
       <c r="C96" t="n">
-        <v>37.5</v>
+        <v>94</v>
       </c>
       <c r="D96" t="n">
-        <v>94</v>
+        <v>91.56</v>
       </c>
       <c r="E96" t="n">
-        <v>91.56</v>
-      </c>
-      <c r="F96" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2355,18 +2065,15 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>460</v>
+        <v>41.25</v>
       </c>
       <c r="C97" t="n">
-        <v>41.25</v>
+        <v>94</v>
       </c>
       <c r="D97" t="n">
-        <v>94</v>
+        <v>87.56</v>
       </c>
       <c r="E97" t="n">
-        <v>87.56</v>
-      </c>
-      <c r="F97" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2375,18 +2082,15 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>467</v>
+        <v>50</v>
       </c>
       <c r="C98" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D98" t="n">
-        <v>94</v>
+        <v>80.13</v>
       </c>
       <c r="E98" t="n">
-        <v>80.13</v>
-      </c>
-      <c r="F98" t="n">
         <v>170</v>
       </c>
     </row>
@@ -2395,18 +2099,15 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>470</v>
+        <v>57.5</v>
       </c>
       <c r="C99" t="n">
-        <v>57.5</v>
+        <v>94</v>
       </c>
       <c r="D99" t="n">
-        <v>94</v>
+        <v>72.3</v>
       </c>
       <c r="E99" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="F99" t="n">
         <v>40</v>
       </c>
     </row>
@@ -2415,18 +2116,15 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>471</v>
+        <v>60</v>
       </c>
       <c r="C100" t="n">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="D100" t="n">
-        <v>94</v>
+        <v>70.15000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>70.15000000000001</v>
-      </c>
-      <c r="F100" t="n">
         <v>24</v>
       </c>
     </row>
@@ -2435,18 +2133,15 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>472</v>
+        <v>62.5</v>
       </c>
       <c r="C101" t="n">
-        <v>62.5</v>
+        <v>94</v>
       </c>
       <c r="D101" t="n">
-        <v>94</v>
+        <v>66.75</v>
       </c>
       <c r="E101" t="n">
-        <v>66.75</v>
-      </c>
-      <c r="F101" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2455,18 +2150,15 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>475</v>
+        <v>70</v>
       </c>
       <c r="C102" t="n">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D102" t="n">
-        <v>94</v>
+        <v>59.25</v>
       </c>
       <c r="E102" t="n">
-        <v>59.25</v>
-      </c>
-      <c r="F102" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2475,18 +2167,15 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>477</v>
+        <v>75</v>
       </c>
       <c r="C103" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D103" t="n">
-        <v>94</v>
+        <v>54.94</v>
       </c>
       <c r="E103" t="n">
-        <v>54.94</v>
-      </c>
-      <c r="F103" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2495,18 +2184,15 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>479</v>
+        <v>80</v>
       </c>
       <c r="C104" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D104" t="n">
-        <v>94</v>
+        <v>49.69</v>
       </c>
       <c r="E104" t="n">
-        <v>49.69</v>
-      </c>
-      <c r="F104" t="n">
         <v>127</v>
       </c>
     </row>
@@ -2515,18 +2201,15 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>482</v>
+        <v>87.5</v>
       </c>
       <c r="C105" t="n">
-        <v>87.5</v>
+        <v>94</v>
       </c>
       <c r="D105" t="n">
-        <v>94</v>
+        <v>42.6</v>
       </c>
       <c r="E105" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="F105" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2535,18 +2218,15 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>486</v>
+        <v>97.5</v>
       </c>
       <c r="C106" t="n">
-        <v>97.5</v>
+        <v>94</v>
       </c>
       <c r="D106" t="n">
-        <v>94</v>
+        <v>33.34</v>
       </c>
       <c r="E106" t="n">
-        <v>33.34</v>
-      </c>
-      <c r="F106" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2555,18 +2235,15 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>489</v>
+        <v>105</v>
       </c>
       <c r="C107" t="n">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D107" t="n">
-        <v>94</v>
+        <v>26.3</v>
       </c>
       <c r="E107" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F107" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2575,18 +2252,15 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>490</v>
+        <v>107.5</v>
       </c>
       <c r="C108" t="n">
-        <v>107.5</v>
+        <v>94</v>
       </c>
       <c r="D108" t="n">
-        <v>94</v>
+        <v>23.4</v>
       </c>
       <c r="E108" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F108" t="n">
         <v>47</v>
       </c>
     </row>
@@ -2595,18 +2269,15 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>494</v>
+        <v>117.5</v>
       </c>
       <c r="C109" t="n">
-        <v>117.5</v>
+        <v>94</v>
       </c>
       <c r="D109" t="n">
-        <v>94</v>
+        <v>14.65</v>
       </c>
       <c r="E109" t="n">
-        <v>14.65</v>
-      </c>
-      <c r="F109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2615,18 +2286,15 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>505</v>
+        <v>165</v>
       </c>
       <c r="C110" t="n">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="D110" t="n">
-        <v>94</v>
+        <v>0.43</v>
       </c>
       <c r="E110" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F110" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2635,18 +2303,15 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>511</v>
+        <v>195</v>
       </c>
       <c r="C111" t="n">
-        <v>195</v>
+        <v>94</v>
       </c>
       <c r="D111" t="n">
-        <v>94</v>
+        <v>0.15</v>
       </c>
       <c r="E111" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F111" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2655,18 +2320,15 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>513</v>
+        <v>210</v>
       </c>
       <c r="C112" t="n">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="D112" t="n">
-        <v>94</v>
+        <v>0.1</v>
       </c>
       <c r="E112" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F112" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2675,18 +2337,15 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>571</v>
+        <v>95</v>
       </c>
       <c r="C113" t="n">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="D113" t="n">
-        <v>122</v>
+        <v>35.66</v>
       </c>
       <c r="E113" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="F113" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2695,18 +2354,15 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>573</v>
+        <v>105</v>
       </c>
       <c r="C114" t="n">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D114" t="n">
-        <v>122</v>
+        <v>26.17</v>
       </c>
       <c r="E114" t="n">
-        <v>26.17</v>
-      </c>
-      <c r="F114" t="n">
         <v>22</v>
       </c>
     </row>
@@ -2715,18 +2371,15 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>588</v>
+        <v>180</v>
       </c>
       <c r="C115" t="n">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="D115" t="n">
-        <v>122</v>
+        <v>0.36</v>
       </c>
       <c r="E115" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="F115" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2735,18 +2388,15 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>589</v>
+        <v>185</v>
       </c>
       <c r="C116" t="n">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="D116" t="n">
-        <v>122</v>
+        <v>0.31</v>
       </c>
       <c r="E116" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="F116" t="n">
         <v>292</v>
       </c>
     </row>
@@ -2755,18 +2405,15 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>590</v>
+        <v>190</v>
       </c>
       <c r="C117" t="n">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="D117" t="n">
-        <v>122</v>
+        <v>0.27</v>
       </c>
       <c r="E117" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="F117" t="n">
         <v>61</v>
       </c>
     </row>
@@ -2775,18 +2422,15 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>591</v>
+        <v>195</v>
       </c>
       <c r="C118" t="n">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="D118" t="n">
-        <v>122</v>
+        <v>0.24</v>
       </c>
       <c r="E118" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="F118" t="n">
         <v>43</v>
       </c>
     </row>
@@ -2795,18 +2439,15 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>594</v>
+        <v>210</v>
       </c>
       <c r="C119" t="n">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="D119" t="n">
-        <v>122</v>
+        <v>0.16</v>
       </c>
       <c r="E119" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F119" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2815,18 +2456,15 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>595</v>
+        <v>215</v>
       </c>
       <c r="C120" t="n">
-        <v>215</v>
+        <v>122</v>
       </c>
       <c r="D120" t="n">
-        <v>122</v>
+        <v>0.15</v>
       </c>
       <c r="E120" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F120" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2835,18 +2473,15 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>596</v>
+        <v>220</v>
       </c>
       <c r="C121" t="n">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="D121" t="n">
-        <v>122</v>
+        <v>0.15</v>
       </c>
       <c r="E121" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F121" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2855,18 +2490,15 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>597</v>
+        <v>225</v>
       </c>
       <c r="C122" t="n">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="D122" t="n">
-        <v>122</v>
+        <v>0.14</v>
       </c>
       <c r="E122" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F122" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2875,18 +2507,15 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>603</v>
+        <v>80</v>
       </c>
       <c r="C123" t="n">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="D123" t="n">
-        <v>157</v>
+        <v>49.7</v>
       </c>
       <c r="E123" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="F123" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2895,18 +2524,15 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>607</v>
+        <v>100</v>
       </c>
       <c r="C124" t="n">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="D124" t="n">
-        <v>157</v>
+        <v>31.09</v>
       </c>
       <c r="E124" t="n">
-        <v>31.09</v>
-      </c>
-      <c r="F124" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2915,18 +2541,15 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>608</v>
+        <v>105</v>
       </c>
       <c r="C125" t="n">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="D125" t="n">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="E125" t="n">
-        <v>27</v>
-      </c>
-      <c r="F125" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2935,18 +2558,15 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>609</v>
+        <v>110</v>
       </c>
       <c r="C126" t="n">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="D126" t="n">
-        <v>157</v>
+        <v>22.5</v>
       </c>
       <c r="E126" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F126" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2955,18 +2575,15 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>610</v>
+        <v>115</v>
       </c>
       <c r="C127" t="n">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="D127" t="n">
-        <v>157</v>
+        <v>18.53</v>
       </c>
       <c r="E127" t="n">
-        <v>18.53</v>
-      </c>
-      <c r="F127" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2975,18 +2592,15 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>622</v>
+        <v>175</v>
       </c>
       <c r="C128" t="n">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D128" t="n">
-        <v>157</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="F128" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2995,18 +2609,15 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>623</v>
+        <v>180</v>
       </c>
       <c r="C129" t="n">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="D129" t="n">
-        <v>157</v>
+        <v>0.63</v>
       </c>
       <c r="E129" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="F129" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3015,18 +2626,15 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>625</v>
+        <v>190</v>
       </c>
       <c r="C130" t="n">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="D130" t="n">
-        <v>157</v>
+        <v>0.47</v>
       </c>
       <c r="E130" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="F130" t="n">
         <v>39</v>
       </c>
     </row>
@@ -3035,18 +2643,15 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>632</v>
+        <v>100</v>
       </c>
       <c r="C131" t="n">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="D131" t="n">
-        <v>185</v>
+        <v>31.95</v>
       </c>
       <c r="E131" t="n">
-        <v>31.95</v>
-      </c>
-      <c r="F131" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3055,18 +2660,15 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>648</v>
+        <v>180</v>
       </c>
       <c r="C132" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D132" t="n">
-        <v>185</v>
+        <v>0.78</v>
       </c>
       <c r="E132" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="F132" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3075,18 +2677,15 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>664</v>
+        <v>40</v>
       </c>
       <c r="C133" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="D133" t="n">
-        <v>220</v>
+        <v>90.2</v>
       </c>
       <c r="E133" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="F133" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3095,18 +2694,15 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>670</v>
+        <v>47.5</v>
       </c>
       <c r="C134" t="n">
-        <v>47.5</v>
+        <v>220</v>
       </c>
       <c r="D134" t="n">
-        <v>220</v>
+        <v>81.95</v>
       </c>
       <c r="E134" t="n">
-        <v>81.95</v>
-      </c>
-      <c r="F134" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3115,18 +2711,15 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>672</v>
+        <v>50</v>
       </c>
       <c r="C135" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="D135" t="n">
-        <v>220</v>
+        <v>80.29000000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>80.29000000000001</v>
-      </c>
-      <c r="F135" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3135,18 +2728,15 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>676</v>
+        <v>55</v>
       </c>
       <c r="C136" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="D136" t="n">
-        <v>220</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>73.31999999999999</v>
-      </c>
-      <c r="F136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3155,18 +2745,15 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>680</v>
+        <v>60</v>
       </c>
       <c r="C137" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D137" t="n">
-        <v>220</v>
+        <v>70.13</v>
       </c>
       <c r="E137" t="n">
-        <v>70.13</v>
-      </c>
-      <c r="F137" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3175,18 +2762,15 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>685</v>
+        <v>66.25</v>
       </c>
       <c r="C138" t="n">
-        <v>66.25</v>
+        <v>220</v>
       </c>
       <c r="D138" t="n">
-        <v>220</v>
+        <v>64.45</v>
       </c>
       <c r="E138" t="n">
-        <v>64.45</v>
-      </c>
-      <c r="F138" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3195,18 +2779,15 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>686</v>
+        <v>67.5</v>
       </c>
       <c r="C139" t="n">
-        <v>67.5</v>
+        <v>220</v>
       </c>
       <c r="D139" t="n">
-        <v>220</v>
+        <v>62.65</v>
       </c>
       <c r="E139" t="n">
-        <v>62.65</v>
-      </c>
-      <c r="F139" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3215,18 +2796,15 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>687</v>
+        <v>70</v>
       </c>
       <c r="C140" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="D140" t="n">
-        <v>220</v>
+        <v>60.23</v>
       </c>
       <c r="E140" t="n">
-        <v>60.23</v>
-      </c>
-      <c r="F140" t="n">
         <v>15</v>
       </c>
     </row>
@@ -3235,18 +2813,15 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>690</v>
+        <v>77.5</v>
       </c>
       <c r="C141" t="n">
-        <v>77.5</v>
+        <v>220</v>
       </c>
       <c r="D141" t="n">
-        <v>220</v>
+        <v>53.2</v>
       </c>
       <c r="E141" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="F141" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3255,18 +2830,15 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>691</v>
+        <v>80</v>
       </c>
       <c r="C142" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="D142" t="n">
-        <v>220</v>
+        <v>51</v>
       </c>
       <c r="E142" t="n">
-        <v>51</v>
-      </c>
-      <c r="F142" t="n">
         <v>38</v>
       </c>
     </row>
@@ -3275,18 +2847,15 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>694</v>
+        <v>87.5</v>
       </c>
       <c r="C143" t="n">
-        <v>87.5</v>
+        <v>220</v>
       </c>
       <c r="D143" t="n">
-        <v>220</v>
+        <v>42.85</v>
       </c>
       <c r="E143" t="n">
-        <v>42.85</v>
-      </c>
-      <c r="F143" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3295,18 +2864,15 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>697</v>
+        <v>95</v>
       </c>
       <c r="C144" t="n">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="D144" t="n">
-        <v>220</v>
+        <v>36.2</v>
       </c>
       <c r="E144" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="F144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3315,18 +2881,15 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>698</v>
+        <v>97.5</v>
       </c>
       <c r="C145" t="n">
-        <v>97.5</v>
+        <v>220</v>
       </c>
       <c r="D145" t="n">
-        <v>220</v>
+        <v>31.6</v>
       </c>
       <c r="E145" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="F145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3335,18 +2898,15 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>700</v>
+        <v>102.5</v>
       </c>
       <c r="C146" t="n">
-        <v>102.5</v>
+        <v>220</v>
       </c>
       <c r="D146" t="n">
-        <v>220</v>
+        <v>29.97</v>
       </c>
       <c r="E146" t="n">
-        <v>29.97</v>
-      </c>
-      <c r="F146" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3355,18 +2915,15 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>701</v>
+        <v>103.75</v>
       </c>
       <c r="C147" t="n">
-        <v>103.75</v>
+        <v>220</v>
       </c>
       <c r="D147" t="n">
-        <v>220</v>
+        <v>28.75</v>
       </c>
       <c r="E147" t="n">
-        <v>28.75</v>
-      </c>
-      <c r="F147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3375,18 +2932,15 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>703</v>
+        <v>106.25</v>
       </c>
       <c r="C148" t="n">
-        <v>106.25</v>
+        <v>220</v>
       </c>
       <c r="D148" t="n">
-        <v>220</v>
+        <v>26.72</v>
       </c>
       <c r="E148" t="n">
-        <v>26.72</v>
-      </c>
-      <c r="F148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3395,18 +2949,15 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>708</v>
+        <v>112.5</v>
       </c>
       <c r="C149" t="n">
-        <v>112.5</v>
+        <v>220</v>
       </c>
       <c r="D149" t="n">
-        <v>220</v>
+        <v>21.85</v>
       </c>
       <c r="E149" t="n">
-        <v>21.85</v>
-      </c>
-      <c r="F149" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3415,18 +2966,15 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>709</v>
+        <v>113.75</v>
       </c>
       <c r="C150" t="n">
-        <v>113.75</v>
+        <v>220</v>
       </c>
       <c r="D150" t="n">
-        <v>220</v>
+        <v>20.4</v>
       </c>
       <c r="E150" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F150" t="n">
         <v>17</v>
       </c>
     </row>
@@ -3435,18 +2983,15 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>711</v>
+        <v>116.25</v>
       </c>
       <c r="C151" t="n">
-        <v>116.25</v>
+        <v>220</v>
       </c>
       <c r="D151" t="n">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="E151" t="n">
-        <v>19</v>
-      </c>
-      <c r="F151" t="n">
         <v>17</v>
       </c>
     </row>
@@ -3455,18 +3000,15 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>712</v>
+        <v>117.5</v>
       </c>
       <c r="C152" t="n">
-        <v>117.5</v>
+        <v>220</v>
       </c>
       <c r="D152" t="n">
-        <v>220</v>
+        <v>17.9</v>
       </c>
       <c r="E152" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="F152" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3475,18 +3017,15 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>715</v>
+        <v>121.25</v>
       </c>
       <c r="C153" t="n">
-        <v>121.25</v>
+        <v>220</v>
       </c>
       <c r="D153" t="n">
-        <v>220</v>
+        <v>15.6</v>
       </c>
       <c r="E153" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3495,18 +3034,15 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>736</v>
+        <v>205</v>
       </c>
       <c r="C154" t="n">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="D154" t="n">
-        <v>220</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E154" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="F154" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3515,18 +3051,15 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>737</v>
+        <v>210</v>
       </c>
       <c r="C155" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D155" t="n">
-        <v>220</v>
+        <v>0.53</v>
       </c>
       <c r="E155" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="F155" t="n">
         <v>301</v>
       </c>
     </row>
@@ -3535,18 +3068,15 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>741</v>
+        <v>230</v>
       </c>
       <c r="C156" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D156" t="n">
-        <v>220</v>
+        <v>0.36</v>
       </c>
       <c r="E156" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="F156" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3555,18 +3085,15 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>743</v>
+        <v>240</v>
       </c>
       <c r="C157" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="D157" t="n">
-        <v>220</v>
+        <v>0.32</v>
       </c>
       <c r="E157" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="F157" t="n">
         <v>130</v>
       </c>
     </row>
@@ -3575,18 +3102,15 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>806</v>
+        <v>37.5</v>
       </c>
       <c r="C158" t="n">
-        <v>37.5</v>
+        <v>367</v>
       </c>
       <c r="D158" t="n">
-        <v>367</v>
+        <v>90.67</v>
       </c>
       <c r="E158" t="n">
-        <v>90.67</v>
-      </c>
-      <c r="F158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3595,18 +3119,15 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>817</v>
+        <v>52.5</v>
       </c>
       <c r="C159" t="n">
-        <v>52.5</v>
+        <v>367</v>
       </c>
       <c r="D159" t="n">
-        <v>367</v>
+        <v>76.55</v>
       </c>
       <c r="E159" t="n">
-        <v>76.55</v>
-      </c>
-      <c r="F159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3615,18 +3136,15 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>820</v>
+        <v>60</v>
       </c>
       <c r="C160" t="n">
-        <v>60</v>
+        <v>367</v>
       </c>
       <c r="D160" t="n">
-        <v>367</v>
+        <v>70.75</v>
       </c>
       <c r="E160" t="n">
-        <v>70.75</v>
-      </c>
-      <c r="F160" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3635,18 +3153,15 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>821</v>
+        <v>62.5</v>
       </c>
       <c r="C161" t="n">
-        <v>62.5</v>
+        <v>367</v>
       </c>
       <c r="D161" t="n">
-        <v>367</v>
+        <v>65.45</v>
       </c>
       <c r="E161" t="n">
-        <v>65.45</v>
-      </c>
-      <c r="F161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3655,18 +3170,15 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>823</v>
+        <v>65</v>
       </c>
       <c r="C162" t="n">
-        <v>65</v>
+        <v>367</v>
       </c>
       <c r="D162" t="n">
-        <v>367</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E162" t="n">
-        <v>65.59999999999999</v>
-      </c>
-      <c r="F162" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3675,18 +3187,15 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>824</v>
+        <v>67.5</v>
       </c>
       <c r="C163" t="n">
-        <v>67.5</v>
+        <v>367</v>
       </c>
       <c r="D163" t="n">
-        <v>367</v>
+        <v>63.5</v>
       </c>
       <c r="E163" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="F163" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3695,18 +3204,15 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>825</v>
+        <v>70</v>
       </c>
       <c r="C164" t="n">
-        <v>70</v>
+        <v>367</v>
       </c>
       <c r="D164" t="n">
-        <v>367</v>
+        <v>60.5</v>
       </c>
       <c r="E164" t="n">
-        <v>60.5</v>
-      </c>
-      <c r="F164" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3715,18 +3221,15 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>826</v>
+        <v>72.5</v>
       </c>
       <c r="C165" t="n">
-        <v>72.5</v>
+        <v>367</v>
       </c>
       <c r="D165" t="n">
-        <v>367</v>
+        <v>57.21</v>
       </c>
       <c r="E165" t="n">
-        <v>57.21</v>
-      </c>
-      <c r="F165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3735,18 +3238,15 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>828</v>
+        <v>77.5</v>
       </c>
       <c r="C166" t="n">
-        <v>77.5</v>
+        <v>367</v>
       </c>
       <c r="D166" t="n">
-        <v>367</v>
+        <v>52.25</v>
       </c>
       <c r="E166" t="n">
-        <v>52.25</v>
-      </c>
-      <c r="F166" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3755,18 +3255,15 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>832</v>
+        <v>87.5</v>
       </c>
       <c r="C167" t="n">
-        <v>87.5</v>
+        <v>367</v>
       </c>
       <c r="D167" t="n">
-        <v>367</v>
+        <v>43.9</v>
       </c>
       <c r="E167" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="F167" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3775,18 +3272,15 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>835</v>
+        <v>95</v>
       </c>
       <c r="C168" t="n">
-        <v>95</v>
+        <v>367</v>
       </c>
       <c r="D168" t="n">
-        <v>367</v>
+        <v>37.9</v>
       </c>
       <c r="E168" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="F168" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3795,18 +3289,15 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>836</v>
+        <v>97.5</v>
       </c>
       <c r="C169" t="n">
-        <v>97.5</v>
+        <v>367</v>
       </c>
       <c r="D169" t="n">
-        <v>367</v>
+        <v>35.73</v>
       </c>
       <c r="E169" t="n">
-        <v>35.73</v>
-      </c>
-      <c r="F169" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3815,18 +3306,15 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>838</v>
+        <v>102.5</v>
       </c>
       <c r="C170" t="n">
-        <v>102.5</v>
+        <v>367</v>
       </c>
       <c r="D170" t="n">
-        <v>367</v>
+        <v>31.73</v>
       </c>
       <c r="E170" t="n">
-        <v>31.73</v>
-      </c>
-      <c r="F170" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3835,18 +3323,15 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>840</v>
+        <v>105</v>
       </c>
       <c r="C171" t="n">
-        <v>105</v>
+        <v>367</v>
       </c>
       <c r="D171" t="n">
-        <v>367</v>
+        <v>30.27</v>
       </c>
       <c r="E171" t="n">
-        <v>30.27</v>
-      </c>
-      <c r="F171" t="n">
         <v>36</v>
       </c>
     </row>
@@ -3855,18 +3340,15 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>843</v>
+        <v>108.75</v>
       </c>
       <c r="C172" t="n">
-        <v>108.75</v>
+        <v>367</v>
       </c>
       <c r="D172" t="n">
-        <v>367</v>
+        <v>27.2</v>
       </c>
       <c r="E172" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F172" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3875,18 +3357,15 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>845</v>
+        <v>111.25</v>
       </c>
       <c r="C173" t="n">
-        <v>111.25</v>
+        <v>367</v>
       </c>
       <c r="D173" t="n">
-        <v>367</v>
+        <v>25.25</v>
       </c>
       <c r="E173" t="n">
-        <v>25.25</v>
-      </c>
-      <c r="F173" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3895,18 +3374,15 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>846</v>
+        <v>112.5</v>
       </c>
       <c r="C174" t="n">
-        <v>112.5</v>
+        <v>367</v>
       </c>
       <c r="D174" t="n">
-        <v>367</v>
+        <v>24.69</v>
       </c>
       <c r="E174" t="n">
-        <v>24.69</v>
-      </c>
-      <c r="F174" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3915,18 +3391,15 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>849</v>
+        <v>116.25</v>
       </c>
       <c r="C175" t="n">
-        <v>116.25</v>
+        <v>367</v>
       </c>
       <c r="D175" t="n">
-        <v>367</v>
+        <v>22.05</v>
       </c>
       <c r="E175" t="n">
-        <v>22.05</v>
-      </c>
-      <c r="F175" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3935,18 +3408,15 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>850</v>
+        <v>117.5</v>
       </c>
       <c r="C176" t="n">
-        <v>117.5</v>
+        <v>367</v>
       </c>
       <c r="D176" t="n">
-        <v>367</v>
+        <v>21.6</v>
       </c>
       <c r="E176" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F176" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3955,18 +3425,15 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>864</v>
+        <v>170</v>
       </c>
       <c r="C177" t="n">
-        <v>170</v>
+        <v>367</v>
       </c>
       <c r="D177" t="n">
-        <v>367</v>
+        <v>4.1</v>
       </c>
       <c r="E177" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F177" t="n">
         <v>245</v>
       </c>
     </row>
@@ -3975,18 +3442,15 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>865</v>
+        <v>175</v>
       </c>
       <c r="C178" t="n">
-        <v>175</v>
+        <v>367</v>
       </c>
       <c r="D178" t="n">
-        <v>367</v>
+        <v>3.38</v>
       </c>
       <c r="E178" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="F178" t="n">
         <v>24</v>
       </c>
     </row>
@@ -3995,18 +3459,15 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>868</v>
+        <v>190</v>
       </c>
       <c r="C179" t="n">
-        <v>190</v>
+        <v>367</v>
       </c>
       <c r="D179" t="n">
-        <v>367</v>
+        <v>2.21</v>
       </c>
       <c r="E179" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="F179" t="n">
         <v>29</v>
       </c>
     </row>
@@ -4015,18 +3476,15 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>871</v>
+        <v>210</v>
       </c>
       <c r="C180" t="n">
-        <v>210</v>
+        <v>367</v>
       </c>
       <c r="D180" t="n">
-        <v>367</v>
+        <v>1.42</v>
       </c>
       <c r="E180" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="F180" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4035,18 +3493,15 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>872</v>
+        <v>220</v>
       </c>
       <c r="C181" t="n">
-        <v>220</v>
+        <v>367</v>
       </c>
       <c r="D181" t="n">
-        <v>367</v>
+        <v>1.15</v>
       </c>
       <c r="E181" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="F181" t="n">
         <v>23</v>
       </c>
     </row>
@@ -4055,18 +3510,15 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>873</v>
+        <v>225</v>
       </c>
       <c r="C182" t="n">
-        <v>225</v>
+        <v>367</v>
       </c>
       <c r="D182" t="n">
-        <v>367</v>
+        <v>1.07</v>
       </c>
       <c r="E182" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="F182" t="n">
         <v>58</v>
       </c>
     </row>
@@ -4075,18 +3527,15 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>876</v>
+        <v>250</v>
       </c>
       <c r="C183" t="n">
-        <v>250</v>
+        <v>367</v>
       </c>
       <c r="D183" t="n">
-        <v>367</v>
+        <v>0.77</v>
       </c>
       <c r="E183" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="F183" t="n">
         <v>159</v>
       </c>
     </row>
@@ -4095,18 +3544,15 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>878</v>
+        <v>260</v>
       </c>
       <c r="C184" t="n">
-        <v>260</v>
+        <v>367</v>
       </c>
       <c r="D184" t="n">
-        <v>367</v>
+        <v>0.7</v>
       </c>
       <c r="E184" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="F184" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4115,18 +3561,15 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>936</v>
+        <v>60</v>
       </c>
       <c r="C185" t="n">
-        <v>60</v>
+        <v>458</v>
       </c>
       <c r="D185" t="n">
-        <v>458</v>
+        <v>70.7</v>
       </c>
       <c r="E185" t="n">
-        <v>70.7</v>
-      </c>
-      <c r="F185" t="n">
         <v>42</v>
       </c>
     </row>
@@ -4135,18 +3578,15 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>938</v>
+        <v>65</v>
       </c>
       <c r="C186" t="n">
+        <v>458</v>
+      </c>
+      <c r="D186" t="n">
         <v>65</v>
       </c>
-      <c r="D186" t="n">
-        <v>458</v>
-      </c>
       <c r="E186" t="n">
-        <v>65</v>
-      </c>
-      <c r="F186" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4155,18 +3595,15 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>940</v>
+        <v>70</v>
       </c>
       <c r="C187" t="n">
-        <v>70</v>
+        <v>458</v>
       </c>
       <c r="D187" t="n">
-        <v>458</v>
+        <v>60.5</v>
       </c>
       <c r="E187" t="n">
-        <v>60.5</v>
-      </c>
-      <c r="F187" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4175,18 +3612,15 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>941</v>
+        <v>72.5</v>
       </c>
       <c r="C188" t="n">
-        <v>72.5</v>
+        <v>458</v>
       </c>
       <c r="D188" t="n">
-        <v>458</v>
+        <v>58.8</v>
       </c>
       <c r="E188" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="F188" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4195,18 +3629,15 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>942</v>
+        <v>75</v>
       </c>
       <c r="C189" t="n">
-        <v>75</v>
+        <v>458</v>
       </c>
       <c r="D189" t="n">
-        <v>458</v>
+        <v>56.1</v>
       </c>
       <c r="E189" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="F189" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4215,18 +3646,15 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>944</v>
+        <v>77.5</v>
       </c>
       <c r="C190" t="n">
-        <v>77.5</v>
+        <v>458</v>
       </c>
       <c r="D190" t="n">
-        <v>458</v>
+        <v>53.25</v>
       </c>
       <c r="E190" t="n">
-        <v>53.25</v>
-      </c>
-      <c r="F190" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4235,18 +3663,15 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>946</v>
+        <v>80</v>
       </c>
       <c r="C191" t="n">
-        <v>80</v>
+        <v>458</v>
       </c>
       <c r="D191" t="n">
-        <v>458</v>
+        <v>51.1</v>
       </c>
       <c r="E191" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="F191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4255,18 +3680,15 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>950</v>
+        <v>85</v>
       </c>
       <c r="C192" t="n">
-        <v>85</v>
+        <v>458</v>
       </c>
       <c r="D192" t="n">
-        <v>458</v>
+        <v>46.3</v>
       </c>
       <c r="E192" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F192" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4275,18 +3697,15 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>952</v>
+        <v>87.5</v>
       </c>
       <c r="C193" t="n">
-        <v>87.5</v>
+        <v>458</v>
       </c>
       <c r="D193" t="n">
-        <v>458</v>
+        <v>45</v>
       </c>
       <c r="E193" t="n">
-        <v>45</v>
-      </c>
-      <c r="F193" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4295,18 +3714,15 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>953</v>
+        <v>90</v>
       </c>
       <c r="C194" t="n">
-        <v>90</v>
+        <v>458</v>
       </c>
       <c r="D194" t="n">
-        <v>458</v>
+        <v>42.92</v>
       </c>
       <c r="E194" t="n">
-        <v>42.92</v>
-      </c>
-      <c r="F194" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4315,18 +3731,15 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>954</v>
+        <v>92.5</v>
       </c>
       <c r="C195" t="n">
-        <v>92.5</v>
+        <v>458</v>
       </c>
       <c r="D195" t="n">
-        <v>458</v>
+        <v>40.5</v>
       </c>
       <c r="E195" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="F195" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4335,18 +3748,15 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>958</v>
+        <v>102.5</v>
       </c>
       <c r="C196" t="n">
-        <v>102.5</v>
+        <v>458</v>
       </c>
       <c r="D196" t="n">
-        <v>458</v>
+        <v>32.5</v>
       </c>
       <c r="E196" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="F196" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4355,18 +3765,15 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>959</v>
+        <v>105</v>
       </c>
       <c r="C197" t="n">
-        <v>105</v>
+        <v>458</v>
       </c>
       <c r="D197" t="n">
-        <v>458</v>
+        <v>31</v>
       </c>
       <c r="E197" t="n">
-        <v>31</v>
-      </c>
-      <c r="F197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,18 +3782,15 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>961</v>
+        <v>110</v>
       </c>
       <c r="C198" t="n">
-        <v>110</v>
+        <v>458</v>
       </c>
       <c r="D198" t="n">
-        <v>458</v>
+        <v>27.8</v>
       </c>
       <c r="E198" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F198" t="n">
         <v>144</v>
       </c>
     </row>
@@ -4395,18 +3799,15 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>974</v>
+        <v>160</v>
       </c>
       <c r="C199" t="n">
-        <v>160</v>
+        <v>458</v>
       </c>
       <c r="D199" t="n">
-        <v>458</v>
+        <v>7.15</v>
       </c>
       <c r="E199" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="F199" t="n">
         <v>207</v>
       </c>
     </row>
@@ -4415,18 +3816,15 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>975</v>
+        <v>165</v>
       </c>
       <c r="C200" t="n">
-        <v>165</v>
+        <v>458</v>
       </c>
       <c r="D200" t="n">
-        <v>458</v>
+        <v>6.16</v>
       </c>
       <c r="E200" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="F200" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4435,18 +3833,15 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>977</v>
+        <v>175</v>
       </c>
       <c r="C201" t="n">
-        <v>175</v>
+        <v>458</v>
       </c>
       <c r="D201" t="n">
-        <v>458</v>
+        <v>4.75</v>
       </c>
       <c r="E201" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F201" t="n">
         <v>22</v>
       </c>
     </row>
@@ -4455,18 +3850,15 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>978</v>
+        <v>180</v>
       </c>
       <c r="C202" t="n">
-        <v>180</v>
+        <v>458</v>
       </c>
       <c r="D202" t="n">
-        <v>458</v>
+        <v>4.15</v>
       </c>
       <c r="E202" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="F202" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4475,18 +3867,15 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>979</v>
+        <v>185</v>
       </c>
       <c r="C203" t="n">
-        <v>185</v>
+        <v>458</v>
       </c>
       <c r="D203" t="n">
-        <v>458</v>
+        <v>3.72</v>
       </c>
       <c r="E203" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="F203" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4495,18 +3884,15 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>981</v>
+        <v>195</v>
       </c>
       <c r="C204" t="n">
-        <v>195</v>
+        <v>458</v>
       </c>
       <c r="D204" t="n">
-        <v>458</v>
+        <v>2.76</v>
       </c>
       <c r="E204" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="F204" t="n">
         <v>12</v>
       </c>
     </row>
@@ -4515,18 +3901,15 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>985</v>
+        <v>225</v>
       </c>
       <c r="C205" t="n">
-        <v>225</v>
+        <v>458</v>
       </c>
       <c r="D205" t="n">
-        <v>458</v>
+        <v>1.67</v>
       </c>
       <c r="E205" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F205" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4535,18 +3918,15 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>986</v>
+        <v>230</v>
       </c>
       <c r="C206" t="n">
-        <v>230</v>
+        <v>458</v>
       </c>
       <c r="D206" t="n">
-        <v>458</v>
+        <v>1.42</v>
       </c>
       <c r="E206" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="F206" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4555,18 +3935,15 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>987</v>
+        <v>240</v>
       </c>
       <c r="C207" t="n">
-        <v>240</v>
+        <v>458</v>
       </c>
       <c r="D207" t="n">
-        <v>458</v>
+        <v>1.27</v>
       </c>
       <c r="E207" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="F207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4575,18 +3952,15 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1036</v>
+        <v>40</v>
       </c>
       <c r="C208" t="n">
-        <v>40</v>
+        <v>584</v>
       </c>
       <c r="D208" t="n">
-        <v>584</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E208" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="F208" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4595,18 +3969,15 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1039</v>
+        <v>60</v>
       </c>
       <c r="C209" t="n">
-        <v>60</v>
+        <v>584</v>
       </c>
       <c r="D209" t="n">
-        <v>584</v>
+        <v>70.7</v>
       </c>
       <c r="E209" t="n">
-        <v>70.7</v>
-      </c>
-      <c r="F209" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4615,18 +3986,15 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1044</v>
+        <v>85</v>
       </c>
       <c r="C210" t="n">
-        <v>85</v>
+        <v>584</v>
       </c>
       <c r="D210" t="n">
-        <v>584</v>
+        <v>47.6</v>
       </c>
       <c r="E210" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="F210" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4635,18 +4003,15 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1056</v>
+        <v>145</v>
       </c>
       <c r="C211" t="n">
-        <v>145</v>
+        <v>584</v>
       </c>
       <c r="D211" t="n">
-        <v>584</v>
+        <v>12.72</v>
       </c>
       <c r="E211" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="F211" t="n">
         <v>111</v>
       </c>
     </row>
@@ -4655,18 +4020,15 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1060</v>
+        <v>165</v>
       </c>
       <c r="C212" t="n">
-        <v>165</v>
+        <v>584</v>
       </c>
       <c r="D212" t="n">
-        <v>584</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="E212" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="F212" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4675,18 +4037,15 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1062</v>
+        <v>175</v>
       </c>
       <c r="C213" t="n">
-        <v>175</v>
+        <v>584</v>
       </c>
       <c r="D213" t="n">
-        <v>584</v>
+        <v>6.51</v>
       </c>
       <c r="E213" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="F213" t="n">
         <v>34</v>
       </c>
     </row>
@@ -4695,18 +4054,15 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1064</v>
+        <v>185</v>
       </c>
       <c r="C214" t="n">
-        <v>185</v>
+        <v>584</v>
       </c>
       <c r="D214" t="n">
-        <v>584</v>
+        <v>5.2</v>
       </c>
       <c r="E214" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="F214" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4715,18 +4071,15 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1068</v>
+        <v>210</v>
       </c>
       <c r="C215" t="n">
-        <v>210</v>
+        <v>584</v>
       </c>
       <c r="D215" t="n">
-        <v>584</v>
+        <v>3.1</v>
       </c>
       <c r="E215" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F215" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4735,18 +4088,15 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1070</v>
+        <v>230</v>
       </c>
       <c r="C216" t="n">
-        <v>230</v>
+        <v>584</v>
       </c>
       <c r="D216" t="n">
-        <v>584</v>
+        <v>2.14</v>
       </c>
       <c r="E216" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F216" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4755,18 +4105,15 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1071</v>
+        <v>240</v>
       </c>
       <c r="C217" t="n">
-        <v>240</v>
+        <v>584</v>
       </c>
       <c r="D217" t="n">
-        <v>584</v>
+        <v>1.88</v>
       </c>
       <c r="E217" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F217" t="n">
         <v>50</v>
       </c>
     </row>
@@ -4775,18 +4122,15 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1076</v>
+        <v>70</v>
       </c>
       <c r="C218" t="n">
-        <v>70</v>
+        <v>640</v>
       </c>
       <c r="D218" t="n">
-        <v>640</v>
+        <v>61.3</v>
       </c>
       <c r="E218" t="n">
-        <v>61.3</v>
-      </c>
-      <c r="F218" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4795,18 +4139,15 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1079</v>
+        <v>85</v>
       </c>
       <c r="C219" t="n">
-        <v>85</v>
+        <v>640</v>
       </c>
       <c r="D219" t="n">
-        <v>640</v>
+        <v>48.25</v>
       </c>
       <c r="E219" t="n">
-        <v>48.25</v>
-      </c>
-      <c r="F219" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4815,18 +4156,15 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1080</v>
+        <v>90</v>
       </c>
       <c r="C220" t="n">
-        <v>90</v>
+        <v>640</v>
       </c>
       <c r="D220" t="n">
-        <v>640</v>
+        <v>43.85</v>
       </c>
       <c r="E220" t="n">
-        <v>43.85</v>
-      </c>
-      <c r="F220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4835,18 +4173,15 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1081</v>
+        <v>95</v>
       </c>
       <c r="C221" t="n">
-        <v>95</v>
+        <v>640</v>
       </c>
       <c r="D221" t="n">
-        <v>640</v>
+        <v>39.99</v>
       </c>
       <c r="E221" t="n">
-        <v>39.99</v>
-      </c>
-      <c r="F221" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4855,18 +4190,15 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1083</v>
+        <v>105</v>
       </c>
       <c r="C222" t="n">
-        <v>105</v>
+        <v>640</v>
       </c>
       <c r="D222" t="n">
-        <v>640</v>
+        <v>33.6</v>
       </c>
       <c r="E222" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="F222" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4875,18 +4207,15 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1084</v>
+        <v>110</v>
       </c>
       <c r="C223" t="n">
-        <v>110</v>
+        <v>640</v>
       </c>
       <c r="D223" t="n">
-        <v>640</v>
+        <v>30.1</v>
       </c>
       <c r="E223" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F223" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4895,18 +4224,15 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1085</v>
+        <v>115</v>
       </c>
       <c r="C224" t="n">
-        <v>115</v>
+        <v>640</v>
       </c>
       <c r="D224" t="n">
-        <v>640</v>
+        <v>27.3</v>
       </c>
       <c r="E224" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F224" t="n">
         <v>12</v>
       </c>
     </row>
@@ -4915,18 +4241,15 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1086</v>
+        <v>120</v>
       </c>
       <c r="C225" t="n">
-        <v>120</v>
+        <v>640</v>
       </c>
       <c r="D225" t="n">
-        <v>640</v>
+        <v>24.44</v>
       </c>
       <c r="E225" t="n">
-        <v>24.44</v>
-      </c>
-      <c r="F225" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4935,18 +4258,15 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>1090</v>
+        <v>140</v>
       </c>
       <c r="C226" t="n">
-        <v>140</v>
+        <v>640</v>
       </c>
       <c r="D226" t="n">
-        <v>640</v>
+        <v>15.85</v>
       </c>
       <c r="E226" t="n">
-        <v>15.85</v>
-      </c>
-      <c r="F226" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4955,18 +4275,15 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>1093</v>
+        <v>155</v>
       </c>
       <c r="C227" t="n">
-        <v>155</v>
+        <v>640</v>
       </c>
       <c r="D227" t="n">
-        <v>640</v>
+        <v>11.24</v>
       </c>
       <c r="E227" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="F227" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4975,18 +4292,15 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1095</v>
+        <v>165</v>
       </c>
       <c r="C228" t="n">
-        <v>165</v>
+        <v>640</v>
       </c>
       <c r="D228" t="n">
-        <v>640</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="E228" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="F228" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4995,18 +4309,15 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1099</v>
+        <v>185</v>
       </c>
       <c r="C229" t="n">
-        <v>185</v>
+        <v>640</v>
       </c>
       <c r="D229" t="n">
-        <v>640</v>
+        <v>5.95</v>
       </c>
       <c r="E229" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="F229" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5015,18 +4326,15 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>1101</v>
+        <v>195</v>
       </c>
       <c r="C230" t="n">
-        <v>195</v>
+        <v>640</v>
       </c>
       <c r="D230" t="n">
-        <v>640</v>
+        <v>4.95</v>
       </c>
       <c r="E230" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="F230" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5035,18 +4343,15 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>1104</v>
+        <v>220</v>
       </c>
       <c r="C231" t="n">
-        <v>220</v>
+        <v>640</v>
       </c>
       <c r="D231" t="n">
-        <v>640</v>
+        <v>2.94</v>
       </c>
       <c r="E231" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="F231" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5055,18 +4360,15 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1111</v>
+        <v>70</v>
       </c>
       <c r="C232" t="n">
-        <v>70</v>
+        <v>731</v>
       </c>
       <c r="D232" t="n">
-        <v>731</v>
+        <v>61.11</v>
       </c>
       <c r="E232" t="n">
-        <v>61.11</v>
-      </c>
-      <c r="F232" t="n">
         <v>9</v>
       </c>
     </row>
@@ -5075,18 +4377,15 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1115</v>
+        <v>90</v>
       </c>
       <c r="C233" t="n">
-        <v>90</v>
+        <v>731</v>
       </c>
       <c r="D233" t="n">
-        <v>731</v>
+        <v>44.7</v>
       </c>
       <c r="E233" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="F233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5095,18 +4394,15 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1118</v>
+        <v>105</v>
       </c>
       <c r="C234" t="n">
-        <v>105</v>
+        <v>731</v>
       </c>
       <c r="D234" t="n">
-        <v>731</v>
+        <v>34.35</v>
       </c>
       <c r="E234" t="n">
-        <v>34.35</v>
-      </c>
-      <c r="F234" t="n">
         <v>17</v>
       </c>
     </row>
@@ -5115,18 +4411,15 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>1128</v>
+        <v>155</v>
       </c>
       <c r="C235" t="n">
-        <v>155</v>
+        <v>731</v>
       </c>
       <c r="D235" t="n">
-        <v>731</v>
+        <v>12.75</v>
       </c>
       <c r="E235" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="F235" t="n">
         <v>25</v>
       </c>
     </row>
@@ -5135,18 +4428,15 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>1130</v>
+        <v>165</v>
       </c>
       <c r="C236" t="n">
-        <v>165</v>
+        <v>731</v>
       </c>
       <c r="D236" t="n">
-        <v>731</v>
+        <v>10.3</v>
       </c>
       <c r="E236" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="F236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5155,18 +4445,15 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1134</v>
+        <v>185</v>
       </c>
       <c r="C237" t="n">
-        <v>185</v>
+        <v>731</v>
       </c>
       <c r="D237" t="n">
-        <v>731</v>
+        <v>6.96</v>
       </c>
       <c r="E237" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="F237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5175,18 +4462,15 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>1135</v>
+        <v>190</v>
       </c>
       <c r="C238" t="n">
-        <v>190</v>
+        <v>731</v>
       </c>
       <c r="D238" t="n">
-        <v>731</v>
+        <v>6.45</v>
       </c>
       <c r="E238" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="F238" t="n">
         <v>36</v>
       </c>
     </row>
@@ -5195,18 +4479,15 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>1138</v>
+        <v>210</v>
       </c>
       <c r="C239" t="n">
-        <v>210</v>
+        <v>731</v>
       </c>
       <c r="D239" t="n">
-        <v>731</v>
+        <v>4.45</v>
       </c>
       <c r="E239" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="F239" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5215,18 +4496,15 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>1139</v>
+        <v>220</v>
       </c>
       <c r="C240" t="n">
-        <v>220</v>
+        <v>731</v>
       </c>
       <c r="D240" t="n">
-        <v>731</v>
+        <v>3.8</v>
       </c>
       <c r="E240" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="F240" t="n">
         <v>40</v>
       </c>
     </row>
@@ -5235,18 +4513,15 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>1141</v>
+        <v>240</v>
       </c>
       <c r="C241" t="n">
-        <v>240</v>
+        <v>731</v>
       </c>
       <c r="D241" t="n">
-        <v>731</v>
+        <v>2.8</v>
       </c>
       <c r="E241" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="F241" t="n">
         <v>5</v>
       </c>
     </row>
